--- a/data/output/FV2504_FV2410/UTILMD/55180.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55180.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="382">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="382">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1377,6 +1377,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U170" totalsRowShown="0">
+  <autoFilter ref="A1:U170"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1666,7 +1696,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9131,5 +9164,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55180.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55180.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="547">
   <si>
     <t>#</t>
   </si>
@@ -2871,48 +2871,46 @@
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2" t="s">
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2" t="s">
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="V13" s="2"/>
+      <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="2" t="s">
@@ -2998,9 +2996,7 @@
       <c r="K15" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L15" s="5"/>
       <c r="M15" s="2" t="s">
         <v>24</v>
       </c>
@@ -3083,44 +3079,42 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M17" s="2" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2" t="s">
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="V17" s="2"/>
+      <c r="V17" s="6"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="2" t="s">
@@ -3146,9 +3140,7 @@
         <v>214</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L18" s="5"/>
       <c r="M18" s="2" t="s">
         <v>25</v>
       </c>
@@ -3258,9 +3250,7 @@
         <v>215</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L20" s="5"/>
       <c r="M20" s="2" t="s">
         <v>25</v>
       </c>
@@ -3316,9 +3306,7 @@
         <v>215</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L21" s="5"/>
       <c r="M21" s="2" t="s">
         <v>25</v>
       </c>
@@ -3374,9 +3362,7 @@
         <v>215</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L22" s="5"/>
       <c r="M22" s="2" t="s">
         <v>25</v>
       </c>
@@ -3403,44 +3389,42 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="K23" s="6"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2" t="s">
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="V23" s="2"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="2" t="s">
@@ -3466,9 +3450,7 @@
         <v>214</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L24" s="5"/>
       <c r="M24" s="2" t="s">
         <v>26</v>
       </c>
@@ -3578,9 +3560,7 @@
         <v>215</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L26" s="5"/>
       <c r="M26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4195,44 +4175,42 @@
       <c r="V40" s="9"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M41" s="2" t="s">
+      <c r="K41" s="6"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2" t="s">
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="V41" s="2"/>
+      <c r="V41" s="6"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="2" t="s">
@@ -4258,9 +4236,7 @@
         <v>214</v>
       </c>
       <c r="K42" s="2"/>
-      <c r="L42" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L42" s="5"/>
       <c r="M42" s="2" t="s">
         <v>28</v>
       </c>
@@ -4370,9 +4346,7 @@
         <v>215</v>
       </c>
       <c r="K44" s="2"/>
-      <c r="L44" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L44" s="5"/>
       <c r="M44" s="2" t="s">
         <v>28</v>
       </c>
@@ -4428,9 +4402,7 @@
         <v>215</v>
       </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L45" s="5"/>
       <c r="M45" s="2" t="s">
         <v>28</v>
       </c>
@@ -4486,9 +4458,7 @@
         <v>215</v>
       </c>
       <c r="K46" s="2"/>
-      <c r="L46" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L46" s="5"/>
       <c r="M46" s="2" t="s">
         <v>28</v>
       </c>
@@ -4515,44 +4485,42 @@
       <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M47" s="2" t="s">
+      <c r="K47" s="6"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2" t="s">
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="V47" s="2"/>
+      <c r="V47" s="6"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="2" t="s">
@@ -4578,9 +4546,7 @@
         <v>214</v>
       </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L48" s="5"/>
       <c r="M48" s="2" t="s">
         <v>29</v>
       </c>
@@ -4632,9 +4598,7 @@
         <v>215</v>
       </c>
       <c r="K49" s="2"/>
-      <c r="L49" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L49" s="5"/>
       <c r="M49" s="2" t="s">
         <v>29</v>
       </c>
@@ -4690,9 +4654,7 @@
         <v>215</v>
       </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L50" s="5"/>
       <c r="M50" s="2" t="s">
         <v>29</v>
       </c>
@@ -7423,44 +7385,42 @@
       <c r="V109" s="2"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2" t="s">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K110" s="2"/>
-      <c r="L110" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M110" s="2" t="s">
+      <c r="K110" s="6"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="N110" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2" t="s">
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="V110" s="2"/>
+      <c r="V110" s="6"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="2" t="s">
@@ -9308,9 +9268,7 @@
         <v>215</v>
       </c>
       <c r="K150" s="2"/>
-      <c r="L150" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L150" s="5"/>
       <c r="M150" s="2" t="s">
         <v>42</v>
       </c>
@@ -9364,9 +9322,7 @@
         <v>215</v>
       </c>
       <c r="K151" s="2"/>
-      <c r="L151" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L151" s="5"/>
       <c r="M151" s="2" t="s">
         <v>42</v>
       </c>
@@ -9420,9 +9376,7 @@
         <v>215</v>
       </c>
       <c r="K152" s="2"/>
-      <c r="L152" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L152" s="5"/>
       <c r="M152" s="2" t="s">
         <v>42</v>
       </c>
@@ -9876,9 +9830,7 @@
         <v>215</v>
       </c>
       <c r="K160" s="2"/>
-      <c r="L160" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="L160" s="5"/>
       <c r="M160" s="2" t="s">
         <v>44</v>
       </c>
